--- a/Structure/6 - System Security/RenSupplyGen.xlsx
+++ b/Structure/6 - System Security/RenSupplyGen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/6 - System Security/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\6 - System Security\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{DFCF051A-0B7D-421D-9F11-54FB07D621B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C203008C-0FFC-479F-A8C1-447F67CB3B5F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3933333F-A4A6-496D-AF3D-631EF7A95B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -482,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C3D781-0017-4324-8D35-C09CBC6B0E53}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +525,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>48236</v>
+        <v>49969</v>
       </c>
       <c r="G2">
         <v>75</v>
@@ -554,7 +548,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="1">
-        <v>-13517</v>
+        <v>-15584</v>
       </c>
       <c r="G3">
         <v>28.022638693092293</v>
@@ -577,7 +571,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>34719</v>
+        <v>34116</v>
       </c>
       <c r="G4">
         <v>71.97736130690771</v>
@@ -600,7 +594,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>-3758</v>
+        <v>-4270</v>
       </c>
       <c r="G5">
         <v>7.7908615971473587</v>
@@ -623,7 +617,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>-4216</v>
+        <v>-4268</v>
       </c>
       <c r="G6">
         <v>8.7403598971722367</v>
@@ -646,7 +640,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="1">
-        <v>-2529</v>
+        <v>-2569</v>
       </c>
       <c r="G7">
         <v>5.2429720540675016</v>
@@ -669,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>-2479</v>
+        <v>-2166</v>
       </c>
       <c r="G8">
         <v>5.1393150344141301</v>
@@ -692,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1">
-        <v>37733</v>
+        <v>38863</v>
       </c>
       <c r="G9">
         <v>78.225806451612897</v>
@@ -715,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="1">
-        <v>25495</v>
+        <v>25113</v>
       </c>
       <c r="G10">
         <v>52.854714321253837</v>
@@ -738,7 +732,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="1">
-        <v>29711</v>
+        <v>29381</v>
       </c>
       <c r="G11">
         <v>61.59507421842607</v>
@@ -754,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6BB7B-BF52-4A69-99C2-08ED42DD6D51}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
